--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adam11-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adam11-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Adam11</t>
   </si>
   <si>
     <t>Itga4</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1152986666666667</v>
+        <v>0.075142</v>
       </c>
       <c r="H2">
-        <v>0.345896</v>
+        <v>0.225426</v>
       </c>
       <c r="I2">
-        <v>0.1156688842087241</v>
+        <v>0.05097354113547087</v>
       </c>
       <c r="J2">
-        <v>0.1156688842087241</v>
+        <v>0.05097354113547086</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N2">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O2">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P2">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q2">
-        <v>0.046560714664</v>
+        <v>0.02503030114666667</v>
       </c>
       <c r="R2">
-        <v>0.419046431976</v>
+        <v>0.22527271032</v>
       </c>
       <c r="S2">
-        <v>0.0005982567219229747</v>
+        <v>0.0001083598551953281</v>
       </c>
       <c r="T2">
-        <v>0.0005982567219229747</v>
+        <v>0.0001083598551953281</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1152986666666667</v>
+        <v>0.075142</v>
       </c>
       <c r="H3">
-        <v>0.345896</v>
+        <v>0.225426</v>
       </c>
       <c r="I3">
-        <v>0.1156688842087241</v>
+        <v>0.05097354113547087</v>
       </c>
       <c r="J3">
-        <v>0.1156688842087241</v>
+        <v>0.05097354113547086</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.412548</v>
       </c>
       <c r="O3">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P3">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q3">
-        <v>0.01585541144533333</v>
+        <v>0.010333227272</v>
       </c>
       <c r="R3">
-        <v>0.142698703008</v>
+        <v>0.092999045448</v>
       </c>
       <c r="S3">
-        <v>0.0002037255343797215</v>
+        <v>4.473406070239986E-05</v>
       </c>
       <c r="T3">
-        <v>0.0002037255343797215</v>
+        <v>4.473406070239985E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1152986666666667</v>
+        <v>0.075142</v>
       </c>
       <c r="H4">
-        <v>0.345896</v>
+        <v>0.225426</v>
       </c>
       <c r="I4">
-        <v>0.1156688842087241</v>
+        <v>0.05097354113547087</v>
       </c>
       <c r="J4">
-        <v>0.1156688842087241</v>
+        <v>0.05097354113547086</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N4">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O4">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P4">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q4">
-        <v>2.702204196119111</v>
+        <v>6.868096071614667</v>
       </c>
       <c r="R4">
-        <v>24.319837765072</v>
+        <v>61.81286464453199</v>
       </c>
       <c r="S4">
-        <v>0.03472051140114189</v>
+        <v>0.02973299807409138</v>
       </c>
       <c r="T4">
-        <v>0.03472051140114189</v>
+        <v>0.02973299807409137</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1152986666666667</v>
+        <v>0.075142</v>
       </c>
       <c r="H5">
-        <v>0.345896</v>
+        <v>0.225426</v>
       </c>
       <c r="I5">
-        <v>0.1156688842087241</v>
+        <v>0.05097354113547087</v>
       </c>
       <c r="J5">
-        <v>0.1156688842087241</v>
+        <v>0.05097354113547086</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N5">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O5">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P5">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q5">
-        <v>0.04961274723644445</v>
+        <v>0.04328006373400001</v>
       </c>
       <c r="R5">
-        <v>0.446514725128</v>
+        <v>0.389520573606</v>
       </c>
       <c r="S5">
-        <v>0.0006374721638501261</v>
+        <v>0.000187365761665451</v>
       </c>
       <c r="T5">
-        <v>0.0006374721638501261</v>
+        <v>0.000187365761665451</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1152986666666667</v>
+        <v>0.075142</v>
       </c>
       <c r="H6">
-        <v>0.345896</v>
+        <v>0.225426</v>
       </c>
       <c r="I6">
-        <v>0.1156688842087241</v>
+        <v>0.05097354113547087</v>
       </c>
       <c r="J6">
-        <v>0.1156688842087241</v>
+        <v>0.05097354113547086</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N6">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O6">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P6">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q6">
-        <v>6.187965678648889</v>
+        <v>4.827760060627334</v>
       </c>
       <c r="R6">
-        <v>55.69169110784</v>
+        <v>43.449840545646</v>
       </c>
       <c r="S6">
-        <v>0.07950891838742934</v>
+        <v>0.02090008338381631</v>
       </c>
       <c r="T6">
-        <v>0.07950891838742934</v>
+        <v>0.0209000833838163</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>1.502253</v>
       </c>
       <c r="I7">
-        <v>0.5023588833325865</v>
+        <v>0.3396908745725183</v>
       </c>
       <c r="J7">
-        <v>0.5023588833325865</v>
+        <v>0.3396908745725183</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N7">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O7">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P7">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q7">
-        <v>0.202216774077</v>
+        <v>0.16680349644</v>
       </c>
       <c r="R7">
-        <v>1.819950966693</v>
+        <v>1.50123146796</v>
       </c>
       <c r="S7">
-        <v>0.002598275074817155</v>
+        <v>0.000722116870044925</v>
       </c>
       <c r="T7">
-        <v>0.002598275074817155</v>
+        <v>0.000722116870044925</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>1.502253</v>
       </c>
       <c r="I8">
-        <v>0.5023588833325865</v>
+        <v>0.3396908745725183</v>
       </c>
       <c r="J8">
-        <v>0.5023588833325865</v>
+        <v>0.3396908745725183</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,22 +936,22 @@
         <v>0.412548</v>
       </c>
       <c r="O8">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P8">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q8">
         <v>0.06886127451600001</v>
       </c>
       <c r="R8">
-        <v>0.6197514706439999</v>
+        <v>0.619751470644</v>
       </c>
       <c r="S8">
-        <v>0.0008847957050631975</v>
+        <v>0.0002981105857015708</v>
       </c>
       <c r="T8">
-        <v>0.0008847957050631975</v>
+        <v>0.0002981105857015708</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>1.502253</v>
       </c>
       <c r="I9">
-        <v>0.5023588833325865</v>
+        <v>0.3396908745725183</v>
       </c>
       <c r="J9">
-        <v>0.5023588833325865</v>
+        <v>0.3396908745725183</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N9">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O9">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P9">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q9">
-        <v>11.735881190394</v>
+        <v>45.76942290539401</v>
       </c>
       <c r="R9">
-        <v>105.622930713546</v>
+        <v>411.924806148546</v>
       </c>
       <c r="S9">
-        <v>0.150793858309722</v>
+        <v>0.1981425636607933</v>
       </c>
       <c r="T9">
-        <v>0.150793858309722</v>
+        <v>0.1981425636607933</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>1.502253</v>
       </c>
       <c r="I10">
-        <v>0.5023588833325865</v>
+        <v>0.3396908745725183</v>
       </c>
       <c r="J10">
-        <v>0.5023588833325865</v>
+        <v>0.3396908745725183</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N10">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O10">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P10">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q10">
-        <v>0.215471986881</v>
+        <v>0.2884210587270001</v>
       </c>
       <c r="R10">
-        <v>1.939247881929</v>
+        <v>2.595789528543</v>
       </c>
       <c r="S10">
-        <v>0.002768590763004902</v>
+        <v>0.001248617185059438</v>
       </c>
       <c r="T10">
-        <v>0.002768590763004902</v>
+        <v>0.001248617185059438</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>1.502253</v>
       </c>
       <c r="I11">
-        <v>0.5023588833325865</v>
+        <v>0.3396908745725183</v>
       </c>
       <c r="J11">
-        <v>0.5023588833325865</v>
+        <v>0.3396908745725183</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N11">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O11">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P11">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q11">
-        <v>26.87481209568001</v>
+        <v>32.17249578290701</v>
       </c>
       <c r="R11">
-        <v>241.87330886112</v>
+        <v>289.552462046163</v>
       </c>
       <c r="S11">
-        <v>0.3453133634799792</v>
+        <v>0.1392794662709191</v>
       </c>
       <c r="T11">
-        <v>0.3453133634799792</v>
+        <v>0.1392794662709191</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.3807496666666667</v>
+        <v>0.4588233333333334</v>
       </c>
       <c r="H12">
-        <v>1.142249</v>
+        <v>1.37647</v>
       </c>
       <c r="I12">
-        <v>0.3819722324586895</v>
+        <v>0.3112487031963553</v>
       </c>
       <c r="J12">
-        <v>0.3819722324586895</v>
+        <v>0.3112487031963553</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N12">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O12">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P12">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q12">
-        <v>0.153756995641</v>
+        <v>0.1528371111555556</v>
       </c>
       <c r="R12">
-        <v>1.383812960769</v>
+        <v>1.3755340004</v>
       </c>
       <c r="S12">
-        <v>0.001975617360015138</v>
+        <v>0.0006616543339309276</v>
       </c>
       <c r="T12">
-        <v>0.001975617360015138</v>
+        <v>0.0006616543339309276</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.3807496666666667</v>
+        <v>0.4588233333333334</v>
       </c>
       <c r="H13">
-        <v>1.142249</v>
+        <v>1.37647</v>
       </c>
       <c r="I13">
-        <v>0.3819722324586895</v>
+        <v>0.3112487031963553</v>
       </c>
       <c r="J13">
-        <v>0.3819722324586895</v>
+        <v>0.3112487031963553</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.412548</v>
       </c>
       <c r="O13">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P13">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q13">
-        <v>0.05235917116133334</v>
+        <v>0.06309554950666667</v>
       </c>
       <c r="R13">
-        <v>0.471232540452</v>
+        <v>0.5678599455600001</v>
       </c>
       <c r="S13">
-        <v>0.0006727608527410047</v>
+        <v>0.0002731499140961217</v>
       </c>
       <c r="T13">
-        <v>0.0006727608527410047</v>
+        <v>0.0002731499140961217</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.3807496666666667</v>
+        <v>0.4588233333333334</v>
       </c>
       <c r="H14">
-        <v>1.142249</v>
+        <v>1.37647</v>
       </c>
       <c r="I14">
-        <v>0.3819722324586895</v>
+        <v>0.3112487031963553</v>
       </c>
       <c r="J14">
-        <v>0.3819722324586895</v>
+        <v>0.3112487031963553</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N14">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O14">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P14">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q14">
-        <v>8.923462661646445</v>
+        <v>41.93716873694889</v>
       </c>
       <c r="R14">
-        <v>80.311163954818</v>
+        <v>377.43451863254</v>
       </c>
       <c r="S14">
-        <v>0.1146572074480275</v>
+        <v>0.181552171706212</v>
       </c>
       <c r="T14">
-        <v>0.1146572074480275</v>
+        <v>0.181552171706212</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.3807496666666667</v>
+        <v>0.4588233333333334</v>
       </c>
       <c r="H15">
-        <v>1.142249</v>
+        <v>1.37647</v>
       </c>
       <c r="I15">
-        <v>0.3819722324586895</v>
+        <v>0.3112487031963553</v>
       </c>
       <c r="J15">
-        <v>0.3819722324586895</v>
+        <v>0.3112487031963553</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N15">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O15">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P15">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q15">
-        <v>0.1638356931507778</v>
+        <v>0.2642716870633334</v>
       </c>
       <c r="R15">
-        <v>1.474521238357</v>
+        <v>2.37844518357</v>
       </c>
       <c r="S15">
-        <v>0.002105118132865494</v>
+        <v>0.001144071003165755</v>
       </c>
       <c r="T15">
-        <v>0.002105118132865494</v>
+        <v>0.001144071003165755</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.4588233333333334</v>
+      </c>
+      <c r="H16">
+        <v>1.37647</v>
+      </c>
+      <c r="I16">
+        <v>0.3112487031963553</v>
+      </c>
+      <c r="J16">
+        <v>0.3112487031963553</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>64.24849033333334</v>
+      </c>
+      <c r="N16">
+        <v>192.745471</v>
+      </c>
+      <c r="O16">
+        <v>0.4100182745450386</v>
+      </c>
+      <c r="P16">
+        <v>0.4100182745450385</v>
+      </c>
+      <c r="Q16">
+        <v>29.47870649637445</v>
+      </c>
+      <c r="R16">
+        <v>265.3083584673701</v>
+      </c>
+      <c r="S16">
+        <v>0.1276176562389504</v>
+      </c>
+      <c r="T16">
+        <v>0.1276176562389504</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4048450000000001</v>
+      </c>
+      <c r="H17">
+        <v>1.214535</v>
+      </c>
+      <c r="I17">
+        <v>0.2746318072581207</v>
+      </c>
+      <c r="J17">
+        <v>0.2746318072581207</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.3331066666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.99932</v>
+      </c>
+      <c r="O17">
+        <v>0.002125805913843485</v>
+      </c>
+      <c r="P17">
+        <v>0.002125805913843485</v>
+      </c>
+      <c r="Q17">
+        <v>0.1348565684666667</v>
+      </c>
+      <c r="R17">
+        <v>1.2137091162</v>
+      </c>
+      <c r="S17">
+        <v>0.0005838139199988371</v>
+      </c>
+      <c r="T17">
+        <v>0.0005838139199988371</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.4048450000000001</v>
+      </c>
+      <c r="H18">
+        <v>1.214535</v>
+      </c>
+      <c r="I18">
+        <v>0.2746318072581207</v>
+      </c>
+      <c r="J18">
+        <v>0.2746318072581207</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.137516</v>
+      </c>
+      <c r="N18">
+        <v>0.412548</v>
+      </c>
+      <c r="O18">
+        <v>0.0008775937418887864</v>
+      </c>
+      <c r="P18">
+        <v>0.0008775937418887864</v>
+      </c>
+      <c r="Q18">
+        <v>0.05567266502000001</v>
+      </c>
+      <c r="R18">
+        <v>0.5010539851800001</v>
+      </c>
+      <c r="S18">
+        <v>0.0002410151553733341</v>
+      </c>
+      <c r="T18">
+        <v>0.0002410151553733341</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.4048450000000001</v>
+      </c>
+      <c r="H19">
+        <v>1.214535</v>
+      </c>
+      <c r="I19">
+        <v>0.2746318072581207</v>
+      </c>
+      <c r="J19">
+        <v>0.2746318072581207</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>91.40156066666667</v>
+      </c>
+      <c r="N19">
+        <v>274.204682</v>
+      </c>
+      <c r="O19">
+        <v>0.5833025803538128</v>
+      </c>
+      <c r="P19">
+        <v>0.5833025803538128</v>
+      </c>
+      <c r="Q19">
+        <v>37.00346482809667</v>
+      </c>
+      <c r="R19">
+        <v>333.03118345287</v>
+      </c>
+      <c r="S19">
+        <v>0.1601934418208928</v>
+      </c>
+      <c r="T19">
+        <v>0.1601934418208928</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.4048450000000001</v>
+      </c>
+      <c r="H20">
+        <v>1.214535</v>
+      </c>
+      <c r="I20">
+        <v>0.2746318072581207</v>
+      </c>
+      <c r="J20">
+        <v>0.2746318072581207</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.5759770000000001</v>
+      </c>
+      <c r="N20">
+        <v>1.727931</v>
+      </c>
+      <c r="O20">
+        <v>0.00367574544541637</v>
+      </c>
+      <c r="P20">
+        <v>0.00367574544541637</v>
+      </c>
+      <c r="Q20">
+        <v>0.2331814085650001</v>
+      </c>
+      <c r="R20">
+        <v>2.098632677085</v>
+      </c>
+      <c r="S20">
+        <v>0.001009476614695504</v>
+      </c>
+      <c r="T20">
+        <v>0.001009476614695504</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.3807496666666667</v>
-      </c>
-      <c r="H16">
-        <v>1.142249</v>
-      </c>
-      <c r="I16">
-        <v>0.3819722324586895</v>
-      </c>
-      <c r="J16">
-        <v>0.3819722324586895</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>53.66901333333334</v>
-      </c>
-      <c r="N16">
-        <v>161.00704</v>
-      </c>
-      <c r="O16">
-        <v>0.6873838105324488</v>
-      </c>
-      <c r="P16">
-        <v>0.6873838105324488</v>
-      </c>
-      <c r="Q16">
-        <v>20.43445893699556</v>
-      </c>
-      <c r="R16">
-        <v>183.91013043296</v>
-      </c>
-      <c r="S16">
-        <v>0.2625615286650403</v>
-      </c>
-      <c r="T16">
-        <v>0.2625615286650403</v>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.4048450000000001</v>
+      </c>
+      <c r="H21">
+        <v>1.214535</v>
+      </c>
+      <c r="I21">
+        <v>0.2746318072581207</v>
+      </c>
+      <c r="J21">
+        <v>0.2746318072581207</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>64.24849033333334</v>
+      </c>
+      <c r="N21">
+        <v>192.745471</v>
+      </c>
+      <c r="O21">
+        <v>0.4100182745450386</v>
+      </c>
+      <c r="P21">
+        <v>0.4100182745450385</v>
+      </c>
+      <c r="Q21">
+        <v>26.01068006899834</v>
+      </c>
+      <c r="R21">
+        <v>234.096120620985</v>
+      </c>
+      <c r="S21">
+        <v>0.1126040597471603</v>
+      </c>
+      <c r="T21">
+        <v>0.1126040597471602</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.034576</v>
+      </c>
+      <c r="H22">
+        <v>0.103728</v>
+      </c>
+      <c r="I22">
+        <v>0.02345507383753481</v>
+      </c>
+      <c r="J22">
+        <v>0.02345507383753481</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.3331066666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.99932</v>
+      </c>
+      <c r="O22">
+        <v>0.002125805913843485</v>
+      </c>
+      <c r="P22">
+        <v>0.002125805913843485</v>
+      </c>
+      <c r="Q22">
+        <v>0.01151749610666667</v>
+      </c>
+      <c r="R22">
+        <v>0.10365746496</v>
+      </c>
+      <c r="S22">
+        <v>4.986093467346711E-05</v>
+      </c>
+      <c r="T22">
+        <v>4.98609346734671E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.034576</v>
+      </c>
+      <c r="H23">
+        <v>0.103728</v>
+      </c>
+      <c r="I23">
+        <v>0.02345507383753481</v>
+      </c>
+      <c r="J23">
+        <v>0.02345507383753481</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.137516</v>
+      </c>
+      <c r="N23">
+        <v>0.412548</v>
+      </c>
+      <c r="O23">
+        <v>0.0008775937418887864</v>
+      </c>
+      <c r="P23">
+        <v>0.0008775937418887864</v>
+      </c>
+      <c r="Q23">
+        <v>0.004754753216</v>
+      </c>
+      <c r="R23">
+        <v>0.042792778944</v>
+      </c>
+      <c r="S23">
+        <v>2.058402601535995E-05</v>
+      </c>
+      <c r="T23">
+        <v>2.058402601535995E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.034576</v>
+      </c>
+      <c r="H24">
+        <v>0.103728</v>
+      </c>
+      <c r="I24">
+        <v>0.02345507383753481</v>
+      </c>
+      <c r="J24">
+        <v>0.02345507383753481</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>91.40156066666667</v>
+      </c>
+      <c r="N24">
+        <v>274.204682</v>
+      </c>
+      <c r="O24">
+        <v>0.5833025803538128</v>
+      </c>
+      <c r="P24">
+        <v>0.5833025803538128</v>
+      </c>
+      <c r="Q24">
+        <v>3.160300361610667</v>
+      </c>
+      <c r="R24">
+        <v>28.442703254496</v>
+      </c>
+      <c r="S24">
+        <v>0.01368140509182326</v>
+      </c>
+      <c r="T24">
+        <v>0.01368140509182326</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.034576</v>
+      </c>
+      <c r="H25">
+        <v>0.103728</v>
+      </c>
+      <c r="I25">
+        <v>0.02345507383753481</v>
+      </c>
+      <c r="J25">
+        <v>0.02345507383753481</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.5759770000000001</v>
+      </c>
+      <c r="N25">
+        <v>1.727931</v>
+      </c>
+      <c r="O25">
+        <v>0.00367574544541637</v>
+      </c>
+      <c r="P25">
+        <v>0.00367574544541637</v>
+      </c>
+      <c r="Q25">
+        <v>0.019914980752</v>
+      </c>
+      <c r="R25">
+        <v>0.179234826768</v>
+      </c>
+      <c r="S25">
+        <v>8.621488083022325E-05</v>
+      </c>
+      <c r="T25">
+        <v>8.621488083022322E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.034576</v>
+      </c>
+      <c r="H26">
+        <v>0.103728</v>
+      </c>
+      <c r="I26">
+        <v>0.02345507383753481</v>
+      </c>
+      <c r="J26">
+        <v>0.02345507383753481</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>64.24849033333334</v>
+      </c>
+      <c r="N26">
+        <v>192.745471</v>
+      </c>
+      <c r="O26">
+        <v>0.4100182745450386</v>
+      </c>
+      <c r="P26">
+        <v>0.4100182745450385</v>
+      </c>
+      <c r="Q26">
+        <v>2.221455801765333</v>
+      </c>
+      <c r="R26">
+        <v>19.993102215888</v>
+      </c>
+      <c r="S26">
+        <v>0.0096170089041925</v>
+      </c>
+      <c r="T26">
+        <v>0.009617008904192498</v>
       </c>
     </row>
   </sheetData>
